--- a/untranslated/downloads/data-excel/9.5.2.xlsx
+++ b/untranslated/downloads/data-excel/9.5.2.xlsx
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -590,14 +590,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -637,8 +637,11 @@
       <c r="M4" s="13">
         <v>2019</v>
       </c>
+      <c r="N4" s="12">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
@@ -678,8 +681,11 @@
       <c r="M5" s="17">
         <v>527</v>
       </c>
+      <c r="N5" s="17">
+        <v>534</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -691,7 +697,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -703,7 +709,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>

--- a/untranslated/downloads/data-excel/9.5.2.xlsx
+++ b/untranslated/downloads/data-excel/9.5.2.xlsx
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -590,14 +590,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -640,8 +640,11 @@
       <c r="N4" s="12">
         <v>2020</v>
       </c>
+      <c r="O4" s="12">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
@@ -684,8 +687,11 @@
       <c r="N5" s="17">
         <v>534</v>
       </c>
+      <c r="O5" s="17">
+        <v>515</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -697,7 +703,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -709,7 +715,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>

--- a/untranslated/downloads/data-excel/9.5.2.xlsx
+++ b/untranslated/downloads/data-excel/9.5.2.xlsx
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -590,14 +590,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -643,8 +643,11 @@
       <c r="O4" s="12">
         <v>2021</v>
       </c>
+      <c r="P4" s="12">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="O5" s="17">
         <v>515</v>
       </c>
+      <c r="P5" s="17">
+        <v>605</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -703,7 +709,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -715,7 +721,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>

--- a/untranslated/downloads/data-excel/9.5.2.xlsx
+++ b/untranslated/downloads/data-excel/9.5.2.xlsx
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -590,14 +590,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -643,11 +643,8 @@
       <c r="O4" s="12">
         <v>2021</v>
       </c>
-      <c r="P4" s="12">
-        <v>2022</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
@@ -693,11 +690,8 @@
       <c r="O5" s="17">
         <v>515</v>
       </c>
-      <c r="P5" s="17">
-        <v>605</v>
-      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -709,7 +703,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -721,7 +715,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>

--- a/untranslated/downloads/data-excel/9.5.2.xlsx
+++ b/untranslated/downloads/data-excel/9.5.2.xlsx
@@ -37,9 +37,6 @@
     <t xml:space="preserve"> 9.5.2 Илимий-изилдөөлөрдө жана иштелмелерде иштеген изилдөөчү адистердин калктын 1 000 000нуна алгандагы саны </t>
   </si>
   <si>
-    <t>9.5.2 Численность специалистов-исследователей, занятых в научных исследованиях и разработках на 1 000 000 населения</t>
-  </si>
-  <si>
     <t>9.5.2 Researchers (in full-time equivalent) per million inhabitants</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>Кыргыз Республикасы</t>
+  </si>
+  <si>
+    <t>9.5.2 Количество исследователей (в эквиваленте полной занятости) на миллион жителей</t>
   </si>
 </sst>
 </file>
@@ -547,11 +547,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -568,18 +566,18 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -590,14 +588,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -646,16 +644,19 @@
       <c r="P4" s="12">
         <v>2022</v>
       </c>
+      <c r="Q4" s="12">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="16">
         <v>360</v>
@@ -696,8 +697,11 @@
       <c r="P5" s="17">
         <v>605</v>
       </c>
+      <c r="Q5" s="17">
+        <v>631</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -709,7 +713,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -721,7 +725,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
